--- a/merge_coincidente.xlsx
+++ b/merge_coincidente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31:0</t>
+          <t>27:0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/31</t>
+          <t>xe-0/0/27</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33:0</t>
+          <t>29:0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/33</t>
+          <t>xe-0/0/29</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>35:0</t>
+          <t>31:0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/35</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37:0</t>
+          <t>33:0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>39:0</t>
+          <t>35:0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>37:0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
     </row>
@@ -646,27 +646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>39:0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
     </row>
@@ -676,27 +676,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>xe-0/0/49</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
     </row>
@@ -766,27 +766,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>xe-0/0/90</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>xe-0/0/92</t>
+          <t>xe-0/0/49</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>51:0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>xe-0/0/94</t>
+          <t>xe-0/0/59</t>
         </is>
       </c>
     </row>
@@ -856,27 +856,687 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEDE-CABA-H-07-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>53:0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>xe-0/0/61</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>59:0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>xe-0/0/63</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5:0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>xe-0/0/65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>61:0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>xe-0/0/67</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>63:0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>xe-0/0/51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>65:0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>xe-0/0/70</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>67:0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>xe-0/0/72</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>70:0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>xe-0/0/74</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>72:0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>xe-0/0/76</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>74:0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>xe-0/0/78</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>76:0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>xe-0/0/79</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>78:0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>xe-0/0/81</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>79:0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>xe-0/0/83</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>7:0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>xe-0/0/85</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>81:0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>xe-0/0/87</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>83:0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>xe-0/0/53</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>85:0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>xe-0/0/90</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>87:0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>xe-0/0/92</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>90:0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>xe-0/0/94</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>92:0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>xe-0/0/96</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>94:0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>xe-0/0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>96:0</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-02-DAAS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>xe-0/0/96</t>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>xe-0/0/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>xe-0/0/9</t>
         </is>
       </c>
     </row>

--- a/merge_coincidente.xlsx
+++ b/merge_coincidente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27:0</t>
+          <t>31:0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xe-0/0/27</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29:0</t>
+          <t>33:0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xe-0/0/29</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31:0</t>
+          <t>35:0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xe-0/0/31</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>33:0</t>
+          <t>37:0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>xe-0/0/33</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>35:0</t>
+          <t>39:0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xe-0/0/35</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>37:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
     </row>
@@ -646,27 +646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>39:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
     </row>
@@ -676,27 +676,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-01-DAAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/49</t>
         </is>
       </c>
     </row>
@@ -766,27 +766,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-03-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/90</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>xe-0/0/49</t>
+          <t>xe-0/0/92</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>51:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>xe-0/0/59</t>
+          <t>xe-0/0/94</t>
         </is>
       </c>
     </row>
@@ -856,687 +856,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-06-COS</t>
+          <t>MEDE-CABA-H-07-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>53:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
+          <t>MEDE-CABA-H-02-DAAS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>xe-0/0/61</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>59:0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>xe-0/0/63</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5:0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>xe-0/0/65</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>61:0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>xe-0/0/67</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>63:0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>xe-0/0/51</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>65:0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>xe-0/0/70</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>67:0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>xe-0/0/72</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>70:0</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>xe-0/0/74</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>72:0</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>xe-0/0/76</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>74:0</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>xe-0/0/78</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>76:0</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>xe-0/0/79</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>78:0</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>xe-0/0/81</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>79:0</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>xe-0/0/83</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>7:0</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>xe-0/0/85</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>81:0</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>xe-0/0/87</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>83:0</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>xe-0/0/53</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>85:0</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>xe-0/0/90</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>87:0</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>xe-0/0/92</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>90:0</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>xe-0/0/94</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>92:0</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>xe-0/0/96</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>94:0</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>xe-0/0/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>96:0</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>xe-0/0/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-06-COS</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>9:0</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>BOGO-GARCE-H-04-DAAS</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>xe-0/0/9</t>
         </is>
       </c>
     </row>
